--- a/Docs/Data_management.xlsx
+++ b/Docs/Data_management.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanwood/Documents/GitHub/Reinforcement-learning-in-locomotion/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanwood/Documents/GitHub/Reinforcement-learning-during-locomotion/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31830EA5-E0C9-CC40-B700-9D9947853053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE692B47-0F57-7242-BC6D-1BCEB5B29A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{4E8D1EC0-A209-1444-BEBA-B19D4FB723FE}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" xr2:uid="{4E8D1EC0-A209-1444-BEBA-B19D4FB723FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="92">
   <si>
     <t>RewardFB_01</t>
   </si>
@@ -303,6 +303,15 @@
   </si>
   <si>
     <t>other (force), timing</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>RPE</t>
+  </si>
+  <si>
+    <t>TE</t>
   </si>
 </sst>
 </file>
@@ -383,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -467,6 +476,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,26 +799,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE8C81C-008A-0D4F-B38F-DFEA5B35EC7A}">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="22" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="4"/>
-    <col min="6" max="6" width="13.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="24.83203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="32.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="4" customWidth="1"/>
+    <col min="4" max="5" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="4"/>
+    <col min="7" max="7" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="24.83203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="32.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>78</v>
       </c>
@@ -808,1799 +827,1979 @@
         <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="6">
         <v>44585</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="E2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
         <v>21</v>
       </c>
-      <c r="G2" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>67</v>
+      <c r="H2" s="24">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I2" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="J2" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="22">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="6">
         <v>44602</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G3" s="8">
         <v>26</v>
       </c>
-      <c r="G3" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>67</v>
+      <c r="H3" s="24">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I3" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="6">
         <v>44602</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="E4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
         <v>27</v>
       </c>
-      <c r="G4" s="24">
-        <v>1</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>67</v>
+      <c r="H4" s="24">
+        <v>1</v>
       </c>
       <c r="I4" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="6">
         <v>44603</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="8">
         <v>30</v>
       </c>
-      <c r="G5" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>67</v>
+      <c r="H5" s="24">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I5" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="6">
         <v>44603</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="E6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
         <v>22</v>
       </c>
-      <c r="G6" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>67</v>
+      <c r="H6" s="24">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I6" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J6" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="6">
         <v>44610</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="8">
+      <c r="G7" s="8">
         <v>33</v>
       </c>
-      <c r="G7" s="24">
-        <v>1</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>67</v>
+      <c r="H7" s="24">
+        <v>1</v>
       </c>
       <c r="I7" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="6">
         <v>44611</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="E8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
         <v>19</v>
       </c>
-      <c r="G8" s="24">
+      <c r="H8" s="24">
         <v>1.2</v>
       </c>
-      <c r="H8" s="24" t="s">
-        <v>67</v>
-      </c>
       <c r="I8" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="6">
         <v>44611</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="E9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
         <v>31</v>
       </c>
-      <c r="G9" s="24">
-        <v>1</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>67</v>
+      <c r="H9" s="24">
+        <v>1</v>
       </c>
       <c r="I9" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J9" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="6">
         <v>44611</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="E10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
         <v>20</v>
       </c>
-      <c r="G10" s="24">
+      <c r="H10" s="24">
         <v>1.2</v>
       </c>
-      <c r="H10" s="24" t="s">
-        <v>67</v>
-      </c>
       <c r="I10" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="6">
         <v>44613</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="E11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
         <v>18</v>
       </c>
-      <c r="G11" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>67</v>
+      <c r="H11" s="24">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I11" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="6">
         <v>44615</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="E12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
         <v>21</v>
       </c>
-      <c r="G12" s="24">
-        <v>1</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>67</v>
+      <c r="H12" s="24">
+        <v>1</v>
       </c>
       <c r="I12" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J12" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>1</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="10">
         <v>44620</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="12">
+      <c r="E13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
         <v>19</v>
       </c>
-      <c r="G13" s="25">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>67</v>
+      <c r="H13" s="25">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I13" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J13" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="6">
         <v>44624</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="E14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
         <v>21</v>
       </c>
-      <c r="G14" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>67</v>
+      <c r="H14" s="24">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I14" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="6">
         <v>44624</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8">
+      <c r="E15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
         <v>30</v>
       </c>
-      <c r="G15" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>67</v>
+      <c r="H15" s="24">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="6">
         <v>44629</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="8">
+      <c r="E16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
         <v>22</v>
       </c>
-      <c r="G16" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>67</v>
+      <c r="H16" s="24">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I16" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J16" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="6">
         <v>44630</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8">
+      <c r="E17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
         <v>18</v>
       </c>
-      <c r="G17" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>67</v>
+      <c r="H17" s="24">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I17" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="6">
         <v>44634</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8">
+      <c r="E18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
         <v>21</v>
       </c>
-      <c r="G18" s="24">
+      <c r="H18" s="24">
         <v>1.2</v>
       </c>
-      <c r="H18" s="24" t="s">
-        <v>67</v>
-      </c>
       <c r="I18" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <v>1</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="6">
         <v>44636</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="8">
+      <c r="E19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
         <v>20</v>
       </c>
-      <c r="G19" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>67</v>
+      <c r="H19" s="24">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I19" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <v>1</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="6">
         <v>44642</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="8">
+      <c r="G20" s="8">
         <v>20</v>
       </c>
-      <c r="G20" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>67</v>
+      <c r="H20" s="24">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I20" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J20" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <v>1</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="6">
         <v>44663</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="8">
+      <c r="G21" s="8">
         <v>21</v>
       </c>
-      <c r="G21" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>67</v>
+      <c r="H21" s="24">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I21" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <v>1</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="6">
         <v>44676</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="8">
+      <c r="G22" s="8">
         <v>31</v>
       </c>
-      <c r="G22" s="24">
+      <c r="H22" s="24">
         <v>1.2</v>
       </c>
-      <c r="H22" s="24" t="s">
-        <v>67</v>
-      </c>
       <c r="I22" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="J22" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>1</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="6">
         <v>44677</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="8">
+      <c r="E23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
         <v>20</v>
       </c>
-      <c r="G23" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>67</v>
+      <c r="H23" s="24">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I23" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="6">
         <v>44686</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="8">
+      <c r="E24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8">
         <v>22</v>
       </c>
-      <c r="G24" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>67</v>
+      <c r="H24" s="24">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I24" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>1</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="6">
         <v>44714</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="8">
+      <c r="G25" s="8">
         <v>26</v>
       </c>
-      <c r="G25" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>67</v>
+      <c r="H25" s="24">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I25" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>1</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="6">
         <v>44715</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="8">
+      <c r="G26" s="8">
         <v>23</v>
       </c>
-      <c r="G26" s="26">
+      <c r="H26" s="26">
         <v>1.2</v>
       </c>
-      <c r="H26" s="24" t="s">
-        <v>67</v>
-      </c>
       <c r="I26" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J26" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>1</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="6">
         <v>44720</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="8">
+      <c r="G27" s="8">
         <v>22</v>
       </c>
-      <c r="G27" s="26">
+      <c r="H27" s="26">
         <v>1.2</v>
       </c>
-      <c r="H27" s="24" t="s">
-        <v>67</v>
-      </c>
       <c r="I27" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J27" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>1</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="6">
         <v>44720</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="8">
+      <c r="E28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8">
         <v>21</v>
       </c>
-      <c r="G28" s="26">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>67</v>
+      <c r="H28" s="26">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J28" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>1</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="6">
         <v>44734</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="8">
+      <c r="E29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="8">
         <v>22</v>
       </c>
-      <c r="G29" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>67</v>
+      <c r="H29" s="24">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I29" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J29" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>1</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="6">
         <v>44732</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="8">
+      <c r="G30" s="8">
         <v>22</v>
       </c>
-      <c r="G30" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>67</v>
+      <c r="H30" s="24">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I30" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J30" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>1</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="6">
         <v>44733</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="8">
+      <c r="E31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8">
         <v>22</v>
       </c>
-      <c r="G31" s="24">
+      <c r="H31" s="24">
         <v>1.2</v>
       </c>
-      <c r="H31" s="24" t="s">
-        <v>67</v>
-      </c>
       <c r="I31" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J31" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="22">
         <v>1</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="6">
         <v>44734</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="8">
+      <c r="E32" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8">
         <v>22</v>
       </c>
-      <c r="G32" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>67</v>
+      <c r="H32" s="24">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I32" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J32" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="22">
         <v>1</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="6">
         <v>44735</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="8">
+      <c r="G33" s="8">
         <v>20</v>
       </c>
-      <c r="G33" s="24">
+      <c r="H33" s="24">
         <v>1.2</v>
       </c>
-      <c r="H33" s="24" t="s">
-        <v>67</v>
-      </c>
       <c r="I33" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J33" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23">
         <v>1</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="18">
         <v>44739</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="19">
+      <c r="G34" s="19">
         <v>23</v>
       </c>
-      <c r="G34" s="27">
+      <c r="H34" s="27">
         <v>1.2</v>
       </c>
-      <c r="H34" s="27" t="s">
-        <v>67</v>
-      </c>
       <c r="I34" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="J34" s="16"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J34" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="22">
         <v>2</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="6">
         <v>44748</v>
       </c>
-      <c r="D35" s="6">
+      <c r="E35" s="6">
         <v>44749</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="F35" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="8">
+      <c r="G35" s="8">
         <v>21</v>
       </c>
-      <c r="G35" s="24">
+      <c r="H35" s="24">
         <v>1.2</v>
       </c>
-      <c r="H35" s="24" t="s">
+      <c r="I35" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="J35" s="24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="22">
         <v>2</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="6">
         <v>44749</v>
       </c>
-      <c r="D36" s="6">
+      <c r="E36" s="6">
         <v>44750</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="8">
+      <c r="F36" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="8">
         <v>22</v>
       </c>
-      <c r="G36" s="24">
-        <v>1</v>
-      </c>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="24">
+        <v>1</v>
+      </c>
+      <c r="I36" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="J36" s="24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="22">
         <v>2</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="6">
         <v>44767</v>
       </c>
-      <c r="D37" s="6">
+      <c r="E37" s="6">
         <v>44768</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="8">
+      <c r="G37" s="8">
         <v>35</v>
       </c>
-      <c r="G37" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H37" s="24" t="s">
+      <c r="H37" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I37" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I37" s="24" t="s">
+      <c r="J37" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="22">
         <v>2</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="6">
         <v>44767</v>
       </c>
-      <c r="D38" s="6">
+      <c r="E38" s="6">
         <v>44768</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="8">
+      <c r="F38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="8">
         <v>21</v>
       </c>
-      <c r="G38" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H38" s="24" t="s">
+      <c r="H38" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I38" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I38" s="24" t="s">
+      <c r="J38" s="24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="22">
         <v>2</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="6">
         <v>44774</v>
       </c>
-      <c r="D39" s="6">
+      <c r="E39" s="6">
         <v>44775</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F39" s="8">
+      <c r="G39" s="8">
         <v>20</v>
       </c>
-      <c r="G39" s="24">
+      <c r="H39" s="24">
         <v>1.2</v>
       </c>
-      <c r="H39" s="24" t="s">
+      <c r="I39" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I39" s="24" t="s">
+      <c r="J39" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="22">
         <v>2</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="6">
         <v>44775</v>
       </c>
-      <c r="D40" s="6">
+      <c r="E40" s="6">
         <v>44776</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="F40" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="8">
+      <c r="G40" s="8">
         <v>27</v>
       </c>
-      <c r="G40" s="24">
-        <v>1</v>
-      </c>
-      <c r="H40" s="24" t="s">
+      <c r="H40" s="24">
+        <v>1</v>
+      </c>
+      <c r="I40" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="I40" s="24" t="s">
+      <c r="J40" s="24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="22">
         <v>2</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="6">
         <v>44783</v>
       </c>
-      <c r="D41" s="6">
+      <c r="E41" s="6">
         <v>44784</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="F41" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="8">
+      <c r="G41" s="8">
         <v>30</v>
       </c>
-      <c r="G41" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H41" s="24" t="s">
+      <c r="H41" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I41" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I41" s="24" t="s">
+      <c r="J41" s="24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="22">
         <v>2</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="6">
         <v>44795</v>
       </c>
-      <c r="D42" s="6">
+      <c r="E42" s="6">
         <v>44796</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="F42" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="8">
+      <c r="G42" s="8">
         <v>23</v>
       </c>
-      <c r="G42" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H42" s="24" t="s">
+      <c r="H42" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I42" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="I42" s="24" t="s">
+      <c r="J42" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="22">
         <v>2</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="6">
         <v>44803</v>
       </c>
-      <c r="D43" s="6">
+      <c r="E43" s="6">
         <v>44804</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="F43" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="8">
+      <c r="G43" s="8">
         <v>29</v>
       </c>
-      <c r="G43" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H43" s="24" t="s">
+      <c r="H43" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I43" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I43" s="24" t="s">
+      <c r="J43" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="22">
         <v>2</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="6">
         <v>44811</v>
       </c>
-      <c r="D44" s="6">
+      <c r="E44" s="6">
         <v>44812</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="8">
+      <c r="F44" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="8">
         <v>23</v>
       </c>
-      <c r="G44" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H44" s="24" t="s">
+      <c r="H44" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I44" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="J44" s="24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="22">
         <v>2</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="6">
         <v>44818</v>
       </c>
-      <c r="D45" s="6">
+      <c r="E45" s="6">
         <v>44819</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F45" s="8">
+      <c r="F45" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="8">
         <v>22</v>
       </c>
-      <c r="G45" s="24">
+      <c r="H45" s="24">
         <v>1.2</v>
       </c>
-      <c r="H45" s="24" t="s">
+      <c r="I45" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I45" s="24" t="s">
+      <c r="J45" s="24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="22">
         <v>2</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="6">
         <v>44818</v>
       </c>
-      <c r="D46" s="6">
+      <c r="E46" s="6">
         <v>44819</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F46" s="8">
+      <c r="F46" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="8">
         <v>18</v>
       </c>
-      <c r="G46" s="24">
+      <c r="H46" s="24">
         <v>1.2</v>
       </c>
-      <c r="H46" s="24" t="s">
+      <c r="I46" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="I46" s="24" t="s">
+      <c r="J46" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="22">
         <v>2</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="6">
         <v>44818</v>
       </c>
-      <c r="D47" s="6">
+      <c r="E47" s="6">
         <v>44819</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47" s="8">
+      <c r="F47" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="8">
         <v>26</v>
       </c>
-      <c r="G47" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H47" s="24" t="s">
+      <c r="H47" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I47" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="I47" s="24" t="s">
+      <c r="J47" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="22">
         <v>2</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="6">
         <v>44818</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="F48" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="8">
+      <c r="G48" s="8">
         <v>19</v>
       </c>
-      <c r="G48" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H48" s="24" t="s">
+      <c r="H48" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I48" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I48" s="24" t="s">
+      <c r="J48" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="22">
         <v>2</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="6">
         <v>44830</v>
       </c>
-      <c r="D49" s="6">
+      <c r="E49" s="6">
         <v>44831</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="8">
+      <c r="G49" s="8">
         <v>34</v>
       </c>
-      <c r="G49" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H49" s="24" t="s">
+      <c r="H49" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I49" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I49" s="24" t="s">
+      <c r="J49" s="24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="22">
         <v>2</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="6">
         <v>44830</v>
       </c>
-      <c r="D50" s="6">
+      <c r="E50" s="6">
         <v>44831</v>
       </c>
-      <c r="E50" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F50" s="8">
+      <c r="F50" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="8">
         <v>21</v>
       </c>
-      <c r="G50" s="24">
+      <c r="H50" s="24">
         <v>1.2</v>
       </c>
-      <c r="H50" s="24" t="s">
+      <c r="I50" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I50" s="24" t="s">
+      <c r="J50" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="22">
         <v>2</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="6">
         <v>44845</v>
       </c>
-      <c r="D51" s="6">
+      <c r="E51" s="6">
         <v>44846</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F51" s="8">
+      <c r="F51" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51" s="8">
         <v>21</v>
       </c>
-      <c r="G51" s="24">
-        <v>1</v>
-      </c>
-      <c r="H51" s="24" t="s">
+      <c r="H51" s="24">
+        <v>1</v>
+      </c>
+      <c r="I51" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I51" s="24" t="s">
+      <c r="J51" s="24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="22">
         <v>2</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="6">
-        <v>44854</v>
+      <c r="C52" s="29" t="s">
+        <v>90</v>
       </c>
       <c r="D52" s="6">
         <v>44854</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="6">
+        <v>44854</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="8">
+      <c r="G52" s="8">
         <v>21</v>
       </c>
-      <c r="G52" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H52" s="24" t="s">
+      <c r="H52" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I52" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I52" s="24" t="s">
+      <c r="J52" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="22">
         <v>2</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="6">
         <v>44858</v>
       </c>
-      <c r="D53" s="6">
+      <c r="E53" s="6">
         <v>44859</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="F53" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F53" s="8">
+      <c r="G53" s="8">
         <v>18</v>
       </c>
-      <c r="G53" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H53" s="24" t="s">
+      <c r="H53" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I53" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I53" s="24" t="s">
+      <c r="J53" s="24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="22">
         <v>2</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="6">
         <v>44866</v>
       </c>
-      <c r="D54" s="6">
+      <c r="E54" s="6">
         <v>44867</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="F54" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F54" s="8">
+      <c r="G54" s="8">
         <v>19</v>
       </c>
-      <c r="G54" s="24">
+      <c r="H54" s="24">
         <v>1.2</v>
       </c>
-      <c r="H54" s="24" t="s">
+      <c r="I54" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I54" s="24" t="s">
+      <c r="J54" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="22">
         <v>2</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="6">
         <v>44866</v>
       </c>
-      <c r="D55" s="6">
+      <c r="E55" s="6">
         <v>44867</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="F55" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F55" s="8">
+      <c r="G55" s="8">
         <v>21</v>
       </c>
-      <c r="G55" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H55" s="24" t="s">
+      <c r="H55" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I55" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I55" s="24" t="s">
+      <c r="J55" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="22">
         <v>2</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="6">
         <v>44867</v>
       </c>
-      <c r="D56" s="6">
+      <c r="E56" s="6">
         <v>44868</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F56" s="8">
+      <c r="F56" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56" s="8">
         <v>19</v>
       </c>
-      <c r="G56" s="24">
+      <c r="H56" s="24">
         <v>1.2</v>
       </c>
-      <c r="H56" s="24" t="s">
+      <c r="I56" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I56" s="24" t="s">
+      <c r="J56" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="22">
         <v>2</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="6">
         <v>44879</v>
       </c>
-      <c r="D57" s="6">
+      <c r="E57" s="6">
         <v>44880</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F57" s="8">
+      <c r="F57" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" s="8">
         <v>28</v>
       </c>
-      <c r="G57" s="24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H57" s="24" t="s">
+      <c r="H57" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I57" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I57" s="24" t="s">
+      <c r="J57" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="22">
         <v>2</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="6">
         <v>44879</v>
       </c>
-      <c r="D58" s="6">
+      <c r="E58" s="6">
         <v>44880</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F58" s="8">
+      <c r="F58" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58" s="8">
         <v>25</v>
       </c>
-      <c r="G58" s="24">
+      <c r="H58" s="24">
         <v>1.2</v>
       </c>
-      <c r="H58" s="24" t="s">
+      <c r="I58" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="J58" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="22">
         <v>2</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="6">
         <v>44886</v>
       </c>
-      <c r="D59" s="6">
+      <c r="E59" s="6">
         <v>44887</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F59" s="8">
+      <c r="F59" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="8">
         <v>18</v>
       </c>
-      <c r="G59" s="24">
-        <v>1</v>
-      </c>
-      <c r="H59" s="24" t="s">
+      <c r="H59" s="24">
+        <v>1</v>
+      </c>
+      <c r="I59" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I59" s="24" t="s">
+      <c r="J59" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="23">
         <v>2</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C60" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="18">
         <v>44909</v>
       </c>
-      <c r="D60" s="18">
+      <c r="E60" s="18">
         <v>44910</v>
       </c>
-      <c r="E60" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F60" s="19">
+      <c r="F60" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60" s="19">
         <v>27</v>
       </c>
-      <c r="G60" s="27">
+      <c r="H60" s="27">
         <v>1.2</v>
       </c>
-      <c r="H60" s="27" t="s">
+      <c r="I60" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="I60" s="27" t="s">
+      <c r="J60" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="J60" s="16"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E61" s="13"/>
-      <c r="F61" s="14"/>
+      <c r="K60" s="16"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F61" s="13"/>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E62" s="13"/>
-      <c r="F62" s="14"/>
+      <c r="J61" s="14"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F62" s="13"/>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E63" s="13"/>
-      <c r="F63" s="14"/>
+      <c r="J62" s="14"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F63" s="13"/>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E64" s="13"/>
-      <c r="F64" s="14"/>
+      <c r="J63" s="14"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F64" s="13"/>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
-    </row>
-    <row r="65" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E65" s="13"/>
-      <c r="F65" s="14"/>
+      <c r="J64" s="14"/>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F65" s="13"/>
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
-    </row>
-    <row r="66" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E66" s="13"/>
-      <c r="F66" s="14"/>
+      <c r="J65" s="14"/>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F66" s="13"/>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2608,15 +2807,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A992D116240524C9C3A24AB596DAABD" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29b1a69e32ab16fa74b507b1af07a265">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3257768-0eef-4236-9788-d5539fc85bc3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a70e6ac4bd2d0bf109ef6abb07674d84" ns2:_="">
     <xsd:import namespace="f3257768-0eef-4236-9788-d5539fc85bc3"/>
@@ -2796,6 +2986,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2807,14 +3006,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765D7963-F927-4EEB-96E8-4A9808F6D401}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7979418C-7866-4C0E-88EB-ED897198C2DC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2828,6 +3019,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765D7963-F927-4EEB-96E8-4A9808F6D401}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Docs/Data_management.xlsx
+++ b/Docs/Data_management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanwood/Documents/GitHub/Reinforcement-learning-during-locomotion/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE692B47-0F57-7242-BC6D-1BCEB5B29A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156A1992-97B2-934F-ABD9-E5E587EEA869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" xr2:uid="{4E8D1EC0-A209-1444-BEBA-B19D4FB723FE}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{4E8D1EC0-A209-1444-BEBA-B19D4FB723FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="99">
   <si>
     <t>RewardFB_01</t>
   </si>
@@ -296,9 +296,6 @@
     <t>other (force)</t>
   </si>
   <si>
-    <t>step length, other (foot angle)</t>
-  </si>
-  <si>
     <t>step length, other (heel placement /foot angle)</t>
   </si>
   <si>
@@ -312,6 +309,30 @@
   </si>
   <si>
     <t>TE</t>
+  </si>
+  <si>
+    <t>Timing</t>
+  </si>
+  <si>
+    <t>Step length</t>
+  </si>
+  <si>
+    <t>Step length / timing</t>
+  </si>
+  <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>Toe direction</t>
+  </si>
+  <si>
+    <t>Timing / Step length</t>
+  </si>
+  <si>
+    <t>step length, lots of other things</t>
+  </si>
+  <si>
+    <t>both step lengths</t>
   </si>
 </sst>
 </file>
@@ -392,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -476,12 +497,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -802,8 +817,8 @@
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -827,7 +842,7 @@
         <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>75</v>
@@ -861,8 +876,8 @@
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>90</v>
+      <c r="C2" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D2" s="6">
         <v>44585</v>
@@ -883,7 +898,7 @@
         <v>67</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -893,8 +908,8 @@
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>91</v>
+      <c r="C3" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D3" s="6">
         <v>44602</v>
@@ -915,7 +930,7 @@
         <v>67</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>64</v>
@@ -928,8 +943,8 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>90</v>
+      <c r="C4" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D4" s="6">
         <v>44602</v>
@@ -950,7 +965,7 @@
         <v>67</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -960,8 +975,8 @@
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>91</v>
+      <c r="C5" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D5" s="6">
         <v>44603</v>
@@ -982,7 +997,7 @@
         <v>67</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -992,8 +1007,8 @@
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>91</v>
+      <c r="C6" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D6" s="6">
         <v>44603</v>
@@ -1014,7 +1029,7 @@
         <v>67</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1024,8 +1039,8 @@
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>90</v>
+      <c r="C7" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D7" s="6">
         <v>44610</v>
@@ -1046,7 +1061,7 @@
         <v>67</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1056,8 +1071,8 @@
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>90</v>
+      <c r="C8" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D8" s="6">
         <v>44611</v>
@@ -1078,7 +1093,7 @@
         <v>67</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1088,8 +1103,8 @@
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>91</v>
+      <c r="C9" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D9" s="6">
         <v>44611</v>
@@ -1110,7 +1125,7 @@
         <v>67</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1120,8 +1135,8 @@
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>90</v>
+      <c r="C10" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D10" s="6">
         <v>44611</v>
@@ -1142,7 +1157,7 @@
         <v>67</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1152,8 +1167,8 @@
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>91</v>
+      <c r="C11" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D11" s="6">
         <v>44613</v>
@@ -1174,7 +1189,7 @@
         <v>67</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1184,8 +1199,8 @@
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>91</v>
+      <c r="C12" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D12" s="6">
         <v>44615</v>
@@ -1206,7 +1221,7 @@
         <v>67</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1216,8 +1231,8 @@
       <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>90</v>
+      <c r="C13" s="25" t="s">
+        <v>89</v>
       </c>
       <c r="D13" s="10">
         <v>44620</v>
@@ -1238,7 +1253,7 @@
         <v>67</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1248,8 +1263,8 @@
       <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>91</v>
+      <c r="C14" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D14" s="6">
         <v>44624</v>
@@ -1270,7 +1285,7 @@
         <v>67</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -1280,8 +1295,8 @@
       <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>90</v>
+      <c r="C15" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D15" s="6">
         <v>44624</v>
@@ -1302,7 +1317,7 @@
         <v>67</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>65</v>
@@ -1315,8 +1330,8 @@
       <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>90</v>
+      <c r="C16" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D16" s="6">
         <v>44629</v>
@@ -1337,7 +1352,7 @@
         <v>67</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1347,8 +1362,8 @@
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>91</v>
+      <c r="C17" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D17" s="6">
         <v>44630</v>
@@ -1369,7 +1384,7 @@
         <v>67</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1379,8 +1394,8 @@
       <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>90</v>
+      <c r="C18" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D18" s="6">
         <v>44634</v>
@@ -1401,7 +1416,7 @@
         <v>67</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1411,8 +1426,8 @@
       <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>90</v>
+      <c r="C19" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D19" s="6">
         <v>44636</v>
@@ -1433,7 +1448,7 @@
         <v>67</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1443,8 +1458,8 @@
       <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>91</v>
+      <c r="C20" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D20" s="6">
         <v>44642</v>
@@ -1465,7 +1480,7 @@
         <v>67</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1475,8 +1490,8 @@
       <c r="B21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>91</v>
+      <c r="C21" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D21" s="6">
         <v>44663</v>
@@ -1497,7 +1512,7 @@
         <v>67</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1507,8 +1522,8 @@
       <c r="B22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>90</v>
+      <c r="C22" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D22" s="6">
         <v>44676</v>
@@ -1529,7 +1544,7 @@
         <v>67</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1539,8 +1554,8 @@
       <c r="B23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>91</v>
+      <c r="C23" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D23" s="6">
         <v>44677</v>
@@ -1561,7 +1576,7 @@
         <v>67</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>66</v>
@@ -1574,8 +1589,8 @@
       <c r="B24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>91</v>
+      <c r="C24" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D24" s="6">
         <v>44686</v>
@@ -1596,7 +1611,7 @@
         <v>67</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1606,8 +1621,8 @@
       <c r="B25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="29" t="s">
-        <v>91</v>
+      <c r="C25" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D25" s="6">
         <v>44714</v>
@@ -1628,7 +1643,7 @@
         <v>67</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1638,8 +1653,8 @@
       <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="29" t="s">
-        <v>90</v>
+      <c r="C26" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D26" s="6">
         <v>44715</v>
@@ -1660,7 +1675,7 @@
         <v>67</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1670,8 +1685,8 @@
       <c r="B27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="29" t="s">
-        <v>91</v>
+      <c r="C27" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D27" s="6">
         <v>44720</v>
@@ -1692,7 +1707,7 @@
         <v>67</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1702,8 +1717,8 @@
       <c r="B28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>90</v>
+      <c r="C28" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D28" s="6">
         <v>44720</v>
@@ -1724,7 +1739,7 @@
         <v>67</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1734,8 +1749,8 @@
       <c r="B29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="29" t="s">
-        <v>91</v>
+      <c r="C29" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D29" s="6">
         <v>44734</v>
@@ -1756,7 +1771,7 @@
         <v>67</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1766,8 +1781,8 @@
       <c r="B30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="29" t="s">
-        <v>90</v>
+      <c r="C30" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D30" s="6">
         <v>44732</v>
@@ -1788,7 +1803,7 @@
         <v>67</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1798,8 +1813,8 @@
       <c r="B31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="29" t="s">
-        <v>91</v>
+      <c r="C31" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D31" s="6">
         <v>44733</v>
@@ -1820,7 +1835,7 @@
         <v>67</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -1830,8 +1845,8 @@
       <c r="B32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="29" t="s">
-        <v>91</v>
+      <c r="C32" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D32" s="6">
         <v>44734</v>
@@ -1852,7 +1867,7 @@
         <v>67</v>
       </c>
       <c r="J32" s="24" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1862,8 +1877,8 @@
       <c r="B33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="29" t="s">
-        <v>90</v>
+      <c r="C33" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D33" s="6">
         <v>44735</v>
@@ -1884,7 +1899,7 @@
         <v>67</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
@@ -1894,8 +1909,8 @@
       <c r="B34" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>90</v>
+      <c r="C34" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="D34" s="18">
         <v>44739</v>
@@ -1916,7 +1931,7 @@
         <v>67</v>
       </c>
       <c r="J34" s="27" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="K34" s="16"/>
     </row>
@@ -1927,8 +1942,8 @@
       <c r="B35" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="29" t="s">
-        <v>91</v>
+      <c r="C35" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D35" s="6">
         <v>44748</v>
@@ -1959,8 +1974,8 @@
       <c r="B36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="29" t="s">
-        <v>91</v>
+      <c r="C36" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D36" s="6">
         <v>44749</v>
@@ -1991,8 +2006,8 @@
       <c r="B37" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="29" t="s">
-        <v>90</v>
+      <c r="C37" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D37" s="6">
         <v>44767</v>
@@ -2026,8 +2041,8 @@
       <c r="B38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="29" t="s">
-        <v>91</v>
+      <c r="C38" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D38" s="6">
         <v>44767</v>
@@ -2048,7 +2063,7 @@
         <v>70</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -2058,8 +2073,8 @@
       <c r="B39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="29" t="s">
-        <v>90</v>
+      <c r="C39" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D39" s="6">
         <v>44774</v>
@@ -2090,8 +2105,8 @@
       <c r="B40" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="29" t="s">
-        <v>90</v>
+      <c r="C40" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D40" s="6">
         <v>44775</v>
@@ -2122,8 +2137,8 @@
       <c r="B41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="29" t="s">
-        <v>91</v>
+      <c r="C41" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D41" s="6">
         <v>44783</v>
@@ -2154,8 +2169,8 @@
       <c r="B42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="29" t="s">
-        <v>90</v>
+      <c r="C42" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D42" s="6">
         <v>44795</v>
@@ -2176,7 +2191,7 @@
         <v>71</v>
       </c>
       <c r="J42" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>64</v>
@@ -2189,8 +2204,8 @@
       <c r="B43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="29" t="s">
-        <v>91</v>
+      <c r="C43" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D43" s="6">
         <v>44803</v>
@@ -2221,8 +2236,8 @@
       <c r="B44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="29" t="s">
-        <v>90</v>
+      <c r="C44" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D44" s="6">
         <v>44811</v>
@@ -2253,8 +2268,8 @@
       <c r="B45" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="29" t="s">
-        <v>90</v>
+      <c r="C45" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D45" s="6">
         <v>44818</v>
@@ -2285,8 +2300,8 @@
       <c r="B46" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="29" t="s">
-        <v>90</v>
+      <c r="C46" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D46" s="6">
         <v>44818</v>
@@ -2317,8 +2332,8 @@
       <c r="B47" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="29" t="s">
-        <v>90</v>
+      <c r="C47" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D47" s="6">
         <v>44818</v>
@@ -2349,8 +2364,8 @@
       <c r="B48" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="29" t="s">
-        <v>91</v>
+      <c r="C48" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D48" s="6">
         <v>44818</v>
@@ -2368,7 +2383,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J48" s="24" t="s">
         <v>84</v>
@@ -2381,8 +2396,8 @@
       <c r="B49" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="29" t="s">
-        <v>90</v>
+      <c r="C49" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D49" s="6">
         <v>44830</v>
@@ -2403,7 +2418,7 @@
         <v>70</v>
       </c>
       <c r="J49" s="24" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -2413,8 +2428,8 @@
       <c r="B50" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="29" t="s">
-        <v>91</v>
+      <c r="C50" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D50" s="6">
         <v>44830</v>
@@ -2445,8 +2460,8 @@
       <c r="B51" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="29" t="s">
-        <v>91</v>
+      <c r="C51" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D51" s="6">
         <v>44845</v>
@@ -2477,8 +2492,8 @@
       <c r="B52" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="29" t="s">
-        <v>90</v>
+      <c r="C52" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D52" s="6">
         <v>44854</v>
@@ -2509,8 +2524,8 @@
       <c r="B53" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="29" t="s">
-        <v>90</v>
+      <c r="C53" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D53" s="6">
         <v>44858</v>
@@ -2541,8 +2556,8 @@
       <c r="B54" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="29" t="s">
-        <v>91</v>
+      <c r="C54" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D54" s="6">
         <v>44866</v>
@@ -2573,8 +2588,8 @@
       <c r="B55" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="29" t="s">
-        <v>90</v>
+      <c r="C55" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D55" s="6">
         <v>44866</v>
@@ -2605,8 +2620,8 @@
       <c r="B56" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="29" t="s">
-        <v>91</v>
+      <c r="C56" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D56" s="6">
         <v>44867</v>
@@ -2637,8 +2652,8 @@
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="29" t="s">
-        <v>91</v>
+      <c r="C57" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D57" s="6">
         <v>44879</v>
@@ -2669,8 +2684,8 @@
       <c r="B58" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="29" t="s">
-        <v>90</v>
+      <c r="C58" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D58" s="6">
         <v>44879</v>
@@ -2691,7 +2706,7 @@
         <v>72</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -2701,8 +2716,8 @@
       <c r="B59" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="29" t="s">
-        <v>91</v>
+      <c r="C59" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D59" s="6">
         <v>44886</v>
@@ -2723,7 +2738,7 @@
         <v>72</v>
       </c>
       <c r="J59" s="24" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -2733,8 +2748,8 @@
       <c r="B60" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="31" t="s">
-        <v>90</v>
+      <c r="C60" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="D60" s="18">
         <v>44909</v>
@@ -2807,6 +2822,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f3257768-0eef-4236-9788-d5539fc85bc3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A992D116240524C9C3A24AB596DAABD" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29b1a69e32ab16fa74b507b1af07a265">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3257768-0eef-4236-9788-d5539fc85bc3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a70e6ac4bd2d0bf109ef6abb07674d84" ns2:_="">
     <xsd:import namespace="f3257768-0eef-4236-9788-d5539fc85bc3"/>
@@ -2986,26 +3020,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E8B039-21B7-4647-83D3-E3ED002CF9CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f3257768-0eef-4236-9788-d5539fc85bc3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f3257768-0eef-4236-9788-d5539fc85bc3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765D7963-F927-4EEB-96E8-4A9808F6D401}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7979418C-7866-4C0E-88EB-ED897198C2DC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3023,30 +3062,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765D7963-F927-4EEB-96E8-4A9808F6D401}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E8B039-21B7-4647-83D3-E3ED002CF9CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f3257768-0eef-4236-9788-d5539fc85bc3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{a698667d-8817-4ad9-a7f2-bb287f867e5f}" enabled="0" method="" siteId="{a698667d-8817-4ad9-a7f2-bb287f867e5f}" removed="1"/>
